--- a/output.xlsx
+++ b/output.xlsx
@@ -490,7 +490,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20220603135549924_boot</t>
+          <t>20220603170334598_boot</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>boot</t>
+          <t>bootNotification</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -510,7 +510,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>{'status': 'Accepted', 'currentTime': '2022-06-03T04:55:47Z', 'interval': 300}</t>
+          <t>{'status': 'Accepted', 'currentTime': '2022-06-03T08:03:32Z', 'interval': 300}</t>
         </is>
       </c>
     </row>
@@ -522,7 +522,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20220603135549924_boot</t>
+          <t>20220603170334598_boot</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'connectorId': '01', 'errorCode': None, 'info': [{'reason': None, 'cpv': 100, 'rv': 11}], 'status': 'Available', 'timestamp': '2022-06-03T13:55:51Z', 'vendorErrorCode': '', 'vendorId': 'LGE'}</t>
+          <t>{'connectorId': '01', 'errorCode': None, 'info': [{'reason': None, 'cpv': 100, 'rv': 11}], 'status': 'Available', 'timestamp': '2022-06-03T17:03:35Z', 'vendorErrorCode': '', 'vendorId': 'LGE'}</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -559,12 +559,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20220603135552197_card</t>
+          <t>20220603170336787_card</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NoData</t>
+          <t>ServerError</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>{'idTagInfo': {'status': 'NoData', 'expiryDate': '2022-06-03T04:55:50Z'}}</t>
+          <t>&lt;Response [500]&gt;</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20220603135552197_card</t>
+          <t>20220603170336787_card</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'connectorId': '01', 'errorCode': None, 'info': [{'reason': None, 'cpv': 100, 'rv': 11}], 'status': 'Preparing', 'timestamp': '2022-06-03T13:55:53Z', 'vendorErrorCode': '', 'vendorId': 'LGE'}</t>
+          <t>{'connectorId': '01', 'errorCode': None, 'info': [{'reason': None, 'cpv': 100, 'rv': 11}], 'status': 'Preparing', 'timestamp': '2022-06-03T17:03:37Z', 'vendorErrorCode': '', 'vendorId': 'LGE'}</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20220603135552197_card</t>
+          <t>20220603170336787_card</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'venderId': 'LG', 'messageId': 'Tariff', 'data': {'connectorId': '01', 'idTag': '1010202030306060', 'timestamp': '2022-06-03T13:55:54Z'}}</t>
+          <t>{'venderId': 'LG', 'messageId': 'Tariff', 'data': {'connectorId': '01', 'idTag': '3333222233334444', 'timestamp': '2022-06-03T17:03:38Z'}}</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -670,7 +670,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20220603135552197_card</t>
+          <t>20220603170336787_card</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'idTag': '1111222233336666', 'connectorId': '01', 'meterStart': None, 'timestamp': '2022-06-03T13:55:55Z'}</t>
+          <t>{'idTag': '1111222233336666', 'connectorId': '01', 'meterStart': None, 'timestamp': '2022-06-03T17:03:40Z'}</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20220603135552197_card</t>
+          <t>20220603170336787_card</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'connectorId': '01', 'errorCode': None, 'info': [{'reason': None, 'cpv': 100, 'rv': 11}], 'status': 'Charging', 'timestamp': '2022-06-03T13:55:56Z', 'vendorErrorCode': '', 'vendorId': 'LGE'}</t>
+          <t>{'connectorId': '01', 'errorCode': None, 'info': [{'reason': None, 'cpv': 100, 'rv': 11}], 'status': 'Charging', 'timestamp': '2022-06-03T17:03:41Z', 'vendorErrorCode': '', 'vendorId': 'LGE'}</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>20220603135552197_card</t>
+          <t>20220603170336787_card</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'connectorId': '01', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-03T13:55:57Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '23.5'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '219.9'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '1000.2'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-0.0'}]}]}</t>
+          <t>{'connectorId': '01', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-03T17:03:42Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '24.9'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '220.3'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '999.8'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '1.0'}]}]}</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -781,12 +781,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>20220603135552197_card</t>
+          <t>20220603170336787_card</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>ServerError</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'idTag': '3333222233334444', 'meterStop': -0.004792434873548412, 'reason': 'Finished', 'timestamp': '2022-06-03T13:55:58Z', 'transactionId': None, 'transactionData': [{'timestamp': '2022-06-03T13:55:58Z', 'sampledValue': [{'measurand': '01', 'phase': '01', 'unit': '01', 'value': '01'}, {'measurand': '01', 'phase': '01', 'unit': '01', 'value': '01'}]}]}</t>
+          <t>{'idTag': '5555222233334444', 'meterStop': 0.9795552337100024, 'reason': 'Finished', 'timestamp': '2022-06-03T17:03:43Z', 'transactionId': None, 'transactionData': [{'timestamp': '2022-06-03T17:03:43Z', 'sampledValue': [{'measurand': '01', 'phase': '01', 'unit': '01', 'value': '01'}, {'measurand': '01', 'phase': '01', 'unit': '01', 'value': '01'}]}]}</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>{'idTagInfo': {'status': 'Accepted', 'expiryDate': '2022-06-03T04:55:56Z'}, 'transactionId': '123123123'}</t>
+          <t>&lt;Response [500]&gt;</t>
         </is>
       </c>
     </row>
@@ -818,7 +818,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>20220603135552197_card</t>
+          <t>20220603170336787_card</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'connectorId': '01', 'errorCode': None, 'info': [{'reason': None, 'cpv': 100, 'rv': 11}], 'status': 'Finishing', 'timestamp': '2022-06-03T13:55:59Z', 'vendorErrorCode': '', 'vendorId': 'LGE'}</t>
+          <t>{'connectorId': '01', 'errorCode': None, 'info': [{'reason': None, 'cpv': 100, 'rv': 11}], 'status': 'Finishing', 'timestamp': '2022-06-03T17:03:44Z', 'vendorErrorCode': '', 'vendorId': 'LGE'}</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>20220603135552197_card</t>
+          <t>20220603170336787_card</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -870,7 +870,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>{'connectorId': '01', 'errorCode': None, 'info': [{'reason': None, 'cpv': 100, 'rv': 11}], 'status': 'Available', 'timestamp': '2022-06-03T13:56:00Z', 'vendorErrorCode': '', 'vendorId': 'LGE'}</t>
+          <t>{'connectorId': '01', 'errorCode': None, 'info': [{'reason': None, 'cpv': 100, 'rv': 11}], 'status': 'Available', 'timestamp': '2022-06-03T17:03:45Z', 'vendorErrorCode': '', 'vendorId': 'LGE'}</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -892,7 +892,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>20220603135606373_heartbeat</t>
+          <t>20220603170354051_heartbeat</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">

--- a/output.xlsx
+++ b/output.xlsx
@@ -490,12 +490,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20220603170334598_boot</t>
+          <t>20220603181019556_boot</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>ServerError</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -510,7 +510,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>{'status': 'Accepted', 'currentTime': '2022-06-03T08:03:32Z', 'interval': 300}</t>
+          <t>&lt;Response [500]&gt;</t>
         </is>
       </c>
     </row>
@@ -522,12 +522,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20220603170334598_boot</t>
+          <t>20220603181019556_boot</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>ServerError</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -537,12 +537,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'connectorId': '01', 'errorCode': None, 'info': [{'reason': None, 'cpv': 100, 'rv': 11}], 'status': 'Available', 'timestamp': '2022-06-03T17:03:35Z', 'vendorErrorCode': '', 'vendorId': 'LGE'}</t>
+          <t>{'connectorId': '01', 'errorCode': None, 'info': [{'reason': None, 'cpv': 100, 'rv': 11}], 'status': 'Available', 'timestamp': '2022-06-03T18:10:20Z', 'vendorErrorCode': '', 'vendorId': 'LGE'}</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>&lt;Response [500]&gt;</t>
         </is>
       </c>
     </row>
@@ -554,12 +554,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5555222233334444</t>
+          <t>1111222233334444</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20220603170336787_card</t>
+          <t>20220603181021746_card</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'idTag': '5555222233334444'}</t>
+          <t>{'idTag': '1111222233334444'}</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5555222233334444</t>
+          <t>1111222233334444</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20220603170336787_card</t>
+          <t>20220603181021746_card</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Preparing</t>
+          <t>ServerError</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -611,12 +611,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'connectorId': '01', 'errorCode': None, 'info': [{'reason': None, 'cpv': 100, 'rv': 11}], 'status': 'Preparing', 'timestamp': '2022-06-03T17:03:37Z', 'vendorErrorCode': '', 'vendorId': 'LGE'}</t>
+          <t>{'connectorId': '01', 'errorCode': None, 'info': [{'reason': None, 'cpv': 100, 'rv': 11}], 'status': 'Preparing', 'timestamp': '2022-06-03T18:10:22Z', 'vendorErrorCode': '', 'vendorId': 'LGE'}</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>&lt;Response [500]&gt;</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5555222233334444</t>
+          <t>1111222233334444</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20220603170336787_card</t>
+          <t>20220603181021746_card</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'venderId': 'LG', 'messageId': 'Tariff', 'data': {'connectorId': '01', 'idTag': '3333222233334444', 'timestamp': '2022-06-03T17:03:38Z'}}</t>
+          <t>{'venderId': 'LG', 'messageId': 'Tariff', 'data': {'connectorId': '01', 'idTag': '1111222233334444', 'timestamp': '2022-06-03T18:10:23Z'}}</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -665,12 +665,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5555222233334444</t>
+          <t>1111222233334444</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20220603170336787_card</t>
+          <t>20220603181021746_card</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'idTag': '1111222233336666', 'connectorId': '01', 'meterStart': None, 'timestamp': '2022-06-03T17:03:40Z'}</t>
+          <t>{'idTag': '5555222233334444', 'connectorId': '01', 'meterStart': None, 'timestamp': '2022-06-03T18:10:24Z'}</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -702,17 +702,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5555222233334444</t>
+          <t>1111222233334444</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20220603170336787_card</t>
+          <t>20220603181021746_card</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Charging</t>
+          <t>ServerError</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'connectorId': '01', 'errorCode': None, 'info': [{'reason': None, 'cpv': 100, 'rv': 11}], 'status': 'Charging', 'timestamp': '2022-06-03T17:03:41Z', 'vendorErrorCode': '', 'vendorId': 'LGE'}</t>
+          <t>{'connectorId': '01', 'errorCode': None, 'info': [{'reason': None, 'cpv': 100, 'rv': 11}], 'status': 'Charging', 'timestamp': '2022-06-03T18:10:26Z', 'vendorErrorCode': '', 'vendorId': 'LGE'}</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>&lt;Response [500]&gt;</t>
         </is>
       </c>
     </row>
@@ -739,17 +739,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5555222233334444</t>
+          <t>1111222233334444</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>20220603170336787_card</t>
+          <t>20220603181021746_card</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Charging</t>
+          <t>ServerError</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -759,12 +759,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'connectorId': '01', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-03T17:03:42Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '24.9'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '220.3'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '999.8'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '1.0'}]}]}</t>
+          <t>{'connectorId': '01', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-03T18:10:27Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '23.4'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '220.7'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '999.8'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '0.7'}]}]}</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>&lt;Response [500]&gt;</t>
         </is>
       </c>
     </row>
@@ -776,12 +776,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5555222233334444</t>
+          <t>1111222233334444</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>20220603170336787_card</t>
+          <t>20220603181021746_card</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'idTag': '5555222233334444', 'meterStop': 0.9795552337100024, 'reason': 'Finished', 'timestamp': '2022-06-03T17:03:43Z', 'transactionId': None, 'transactionData': [{'timestamp': '2022-06-03T17:03:43Z', 'sampledValue': [{'measurand': '01', 'phase': '01', 'unit': '01', 'value': '01'}, {'measurand': '01', 'phase': '01', 'unit': '01', 'value': '01'}]}]}</t>
+          <t>{'idTag': '3333222233334444', 'meterStop': 0.729759527533703, 'reason': 'Finished', 'timestamp': '2022-06-03T18:10:28Z', 'transactionId': None, 'transactionData': [{'timestamp': '2022-06-03T18:10:28Z', 'sampledValue': [{'measurand': '01', 'phase': '01', 'unit': '01', 'value': '01'}, {'measurand': '01', 'phase': '01', 'unit': '01', 'value': '01'}]}]}</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -813,17 +813,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5555222233334444</t>
+          <t>1111222233334444</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>20220603170336787_card</t>
+          <t>20220603181021746_card</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Finishing</t>
+          <t>ServerError</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -833,12 +833,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'connectorId': '01', 'errorCode': None, 'info': [{'reason': None, 'cpv': 100, 'rv': 11}], 'status': 'Finishing', 'timestamp': '2022-06-03T17:03:44Z', 'vendorErrorCode': '', 'vendorId': 'LGE'}</t>
+          <t>{'connectorId': '01', 'errorCode': None, 'info': [{'reason': None, 'cpv': 100, 'rv': 11}], 'status': 'Finishing', 'timestamp': '2022-06-03T18:10:29Z', 'vendorErrorCode': '', 'vendorId': 'LGE'}</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>&lt;Response [500]&gt;</t>
         </is>
       </c>
     </row>
@@ -850,17 +850,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>5555222233334444</t>
+          <t>1111222233334444</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>20220603170336787_card</t>
+          <t>20220603181021746_card</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>ServerError</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -870,12 +870,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>{'connectorId': '01', 'errorCode': None, 'info': [{'reason': None, 'cpv': 100, 'rv': 11}], 'status': 'Available', 'timestamp': '2022-06-03T17:03:45Z', 'vendorErrorCode': '', 'vendorId': 'LGE'}</t>
+          <t>{'connectorId': '01', 'errorCode': None, 'info': [{'reason': None, 'cpv': 100, 'rv': 11}], 'status': 'Available', 'timestamp': '2022-06-03T18:10:30Z', 'vendorErrorCode': '', 'vendorId': 'LGE'}</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>&lt;Response [500]&gt;</t>
         </is>
       </c>
     </row>
@@ -887,12 +887,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5555222233334444</t>
+          <t>1111222233334444</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>20220603170354051_heartbeat</t>
+          <t>20220603181034632_heartbeat</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">

--- a/output.xlsx
+++ b/output.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,10 +429,11 @@
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="25" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="40" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
     <col width="40" customWidth="1" min="8" max="8"/>
+    <col width="40" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -468,15 +469,20 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Meter</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Request Json</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>response Json</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>variables</t>
         </is>
@@ -490,7 +496,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20220603181019556_boot</t>
+          <t>20220604135830541_boot</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -503,12 +509,15 @@
           <t>bootNotification</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>10246</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>{'reason': 'PowerUp', 'chargePointSerialNumber': 'C2313123131231232', 'chargePointVendor': 'LGE', 'chargePointModel': 'LGE2323211', 'firmwareVersion': 'V1.3', 'lccid': 'usim121331', 'imsi': '01023224444', 'meterSerialNumber': 'CNTER23123123', 'rssi': '-80', 'entityId': 'M2M2442'}</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>&lt;Response [500]&gt;</t>
         </is>
@@ -522,7 +531,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20220603181019556_boot</t>
+          <t>20220604135830541_boot</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -535,12 +544,15 @@
           <t>statusNotification</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>{'connectorId': '01', 'errorCode': None, 'info': [{'reason': None, 'cpv': 100, 'rv': 11}], 'status': 'Available', 'timestamp': '2022-06-03T18:10:20Z', 'vendorErrorCode': '', 'vendorId': 'LGE'}</t>
-        </is>
+      <c r="G3" t="n">
+        <v>10246</v>
       </c>
       <c r="H3" t="inlineStr">
+        <is>
+          <t>{'connectorId': '01', 'errorCode': None, 'info': [{'reason': None, 'cpv': 100, 'rv': 11}], 'status': 'Available', 'timestamp': '2022-06-04T13:58:31Z', 'vendorErrorCode': '', 'vendorId': 'LGE'}</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>&lt;Response [500]&gt;</t>
         </is>
@@ -559,7 +571,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20220603181021746_card</t>
+          <t>20220604135832733_card</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -572,12 +584,15 @@
           <t>authorize</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" t="n">
+        <v>10246</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>{'idTag': '1111222233334444'}</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>&lt;Response [500]&gt;</t>
         </is>
@@ -596,7 +611,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20220603181021746_card</t>
+          <t>20220604135832733_card</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -609,12 +624,15 @@
           <t>statusNotification</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>{'connectorId': '01', 'errorCode': None, 'info': [{'reason': None, 'cpv': 100, 'rv': 11}], 'status': 'Preparing', 'timestamp': '2022-06-03T18:10:22Z', 'vendorErrorCode': '', 'vendorId': 'LGE'}</t>
-        </is>
+      <c r="G5" t="n">
+        <v>10246</v>
       </c>
       <c r="H5" t="inlineStr">
+        <is>
+          <t>{'connectorId': '01', 'errorCode': None, 'info': [{'reason': None, 'cpv': 100, 'rv': 11}], 'status': 'Preparing', 'timestamp': '2022-06-04T13:58:33Z', 'vendorErrorCode': '', 'vendorId': 'LGE'}</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>&lt;Response [500]&gt;</t>
         </is>
@@ -633,7 +651,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20220603181021746_card</t>
+          <t>20220604135832733_card</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -646,12 +664,15 @@
           <t>dataTransferTariff</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>{'venderId': 'LG', 'messageId': 'Tariff', 'data': {'connectorId': '01', 'idTag': '1111222233334444', 'timestamp': '2022-06-03T18:10:23Z'}}</t>
-        </is>
+      <c r="G6" t="n">
+        <v>10246</v>
       </c>
       <c r="H6" t="inlineStr">
+        <is>
+          <t>{'venderId': 'LG', 'messageId': 'Tariff', 'data': {'connectorId': '01', 'idTag': '5555222233334444', 'timestamp': '2022-06-04T13:58:34Z'}}</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>&lt;Response [404]&gt;</t>
         </is>
@@ -670,7 +691,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20220603181021746_card</t>
+          <t>20220604135832733_card</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -683,12 +704,15 @@
           <t>startTransaction</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>{'idTag': '5555222233334444', 'connectorId': '01', 'meterStart': None, 'timestamp': '2022-06-03T18:10:24Z'}</t>
-        </is>
+      <c r="G7" t="n">
+        <v>10246</v>
       </c>
       <c r="H7" t="inlineStr">
+        <is>
+          <t>{'idTag': '1111222233334444', 'connectorId': '01', 'meterStart': 10246, 'timestamp': '2022-06-04T13:58:35Z'}</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>&lt;Response [500]&gt;</t>
         </is>
@@ -707,7 +731,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20220603181021746_card</t>
+          <t>20220604135832733_card</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -720,12 +744,15 @@
           <t>statusNotification</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>{'connectorId': '01', 'errorCode': None, 'info': [{'reason': None, 'cpv': 100, 'rv': 11}], 'status': 'Charging', 'timestamp': '2022-06-03T18:10:26Z', 'vendorErrorCode': '', 'vendorId': 'LGE'}</t>
-        </is>
+      <c r="G8" t="n">
+        <v>10246</v>
       </c>
       <c r="H8" t="inlineStr">
+        <is>
+          <t>{'connectorId': '01', 'errorCode': None, 'info': [{'reason': None, 'cpv': 100, 'rv': 11}], 'status': 'Charging', 'timestamp': '2022-06-04T13:58:36Z', 'vendorErrorCode': '', 'vendorId': 'LGE'}</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>&lt;Response [500]&gt;</t>
         </is>
@@ -744,7 +771,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>20220603181021746_card</t>
+          <t>20220604135832733_card</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -757,12 +784,15 @@
           <t>meterValues</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>{'connectorId': '01', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-03T18:10:27Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '23.4'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '220.7'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '999.8'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '0.7'}]}]}</t>
-        </is>
+      <c r="G9" t="n">
+        <v>11246</v>
       </c>
       <c r="H9" t="inlineStr">
+        <is>
+          <t>{'connectorId': '01', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-04T13:58:38Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '23.8'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '219.9'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '1000.8'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '0.4'}]}]}</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>&lt;Response [500]&gt;</t>
         </is>
@@ -781,7 +811,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>20220603181021746_card</t>
+          <t>20220604135832733_card</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -791,15 +821,18 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>stopTransaction</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>{'idTag': '3333222233334444', 'meterStop': 0.729759527533703, 'reason': 'Finished', 'timestamp': '2022-06-03T18:10:28Z', 'transactionId': None, 'transactionData': [{'timestamp': '2022-06-03T18:10:28Z', 'sampledValue': [{'measurand': '01', 'phase': '01', 'unit': '01', 'value': '01'}, {'measurand': '01', 'phase': '01', 'unit': '01', 'value': '01'}]}]}</t>
-        </is>
+          <t>meterValues</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>13246</v>
       </c>
       <c r="H10" t="inlineStr">
+        <is>
+          <t>{'connectorId': '01', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-04T13:58:39Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '47.2'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '220.9'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '2000.7'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '1.5'}]}]}</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>&lt;Response [500]&gt;</t>
         </is>
@@ -818,7 +851,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>20220603181021746_card</t>
+          <t>20220604135832733_card</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -828,15 +861,18 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>statusNotification</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>{'connectorId': '01', 'errorCode': None, 'info': [{'reason': None, 'cpv': 100, 'rv': 11}], 'status': 'Finishing', 'timestamp': '2022-06-03T18:10:29Z', 'vendorErrorCode': '', 'vendorId': 'LGE'}</t>
-        </is>
+          <t>meterValues</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>16246</v>
       </c>
       <c r="H11" t="inlineStr">
+        <is>
+          <t>{'connectorId': '01', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-04T13:58:40Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '94.7'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '220.0'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '3000.2'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '3.4'}]}]}</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>&lt;Response [500]&gt;</t>
         </is>
@@ -855,7 +891,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>20220603181021746_card</t>
+          <t>20220604135832733_card</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -865,15 +901,18 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>statusNotification</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>{'connectorId': '01', 'errorCode': None, 'info': [{'reason': None, 'cpv': 100, 'rv': 11}], 'status': 'Available', 'timestamp': '2022-06-03T18:10:30Z', 'vendorErrorCode': '', 'vendorId': 'LGE'}</t>
-        </is>
+          <t>meterValues</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>20245</v>
       </c>
       <c r="H12" t="inlineStr">
+        <is>
+          <t>{'connectorId': '01', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-04T13:58:41Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '190.1'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '219.3'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '3999.8'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '6.7'}]}]}</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>&lt;Response [500]&gt;</t>
         </is>
@@ -892,7 +931,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>20220603181034632_heartbeat</t>
+          <t>20220604135832733_card</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -902,15 +941,258 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>meterValues</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>25245</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>{'connectorId': '01', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-04T13:58:42Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '381.0'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '220.1'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '5000.1'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '13.6'}]}]}</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>&lt;Response [500]&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>010400011001</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1111222233334444</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>20220604135832733_card</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ServerError</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>stopTransaction</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>25245</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>{'idTag': '1111222233334444', 'meterStop': 15246.089961512216, 'reason': 'Finished', 'timestamp': '2022-06-04T13:58:43Z', 'transactionId': None, 'transactionData': [{'timestamp': '2022-06-04T13:58:43Z', 'sampledValue': [{'measurand': '01', 'phase': '01', 'unit': '01', 'value': '01'}, {'measurand': '01', 'phase': '01', 'unit': '01', 'value': '01'}]}]}</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>&lt;Response [500]&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>010400011001</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1111222233334444</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>20220604135832733_card</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ServerError</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>statusNotification</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>25245</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>{'connectorId': '01', 'errorCode': None, 'info': [{'reason': None, 'cpv': 100, 'rv': 11}], 'status': 'Finishing', 'timestamp': '2022-06-04T13:58:44Z', 'vendorErrorCode': '', 'vendorId': 'LGE'}</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>&lt;Response [500]&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>010400011001</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1111222233334444</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>20220604135832733_card</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ServerError</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>statusNotification</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>25245</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>{'connectorId': '01', 'errorCode': None, 'info': [{'reason': None, 'cpv': 100, 'rv': 11}], 'status': 'Available', 'timestamp': '2022-06-04T13:58:45Z', 'vendorErrorCode': '', 'vendorId': 'LGE'}</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>&lt;Response [500]&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>010400011001</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1111222233334444</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>20220604135846584_heartbeat</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ServerError</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>dataTransferHeartbeat</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G17" t="n">
+        <v>25245</v>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>{'vendorId': 'LGE', 'messageId': 'heartbeat', 'data': {'rssi': 80, 'snr': 57, 'rsrp': 70}}</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>&lt;Response [404]&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>010400011001</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1111222233334444</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>20220604135847647_heartbeat</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ServerError</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>dataTransferHeartbeat</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>25245</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>{'vendorId': 'LGE', 'messageId': 'heartbeat', 'data': {'rssi': 80, 'snr': 57, 'rsrp': 70}}</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>&lt;Response [404]&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>010400011001</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1111222233334444</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>20220604135848709_heartbeat</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ServerError</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>dataTransferHeartbeat</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>25245</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>{'vendorId': 'LGE', 'messageId': 'heartbeat', 'data': {'rssi': 80, 'snr': 57, 'rsrp': 70}}</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>&lt;Response [404]&gt;</t>
         </is>

--- a/output.xlsx
+++ b/output.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,8 +432,11 @@
     <col width="15" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="40" customWidth="1" min="8" max="8"/>
-    <col width="40" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
+    <col width="40" customWidth="1" min="11" max="11"/>
+    <col width="40" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -469,20 +472,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>MeterStart</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>MeterStop</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Meter</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Charge_Amount</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Request Json</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>response Json</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>variables</t>
         </is>
@@ -491,18 +509,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>010400011001</t>
+          <t>01040001100</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20220604135830541_boot</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ServerError</t>
-        </is>
+          <t>20220605190604933_boot</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>500</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -510,313 +526,378 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>10246</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>{'reason': 'PowerUp', 'chargePointSerialNumber': 'C2313123131231232', 'chargePointVendor': 'LGE', 'chargePointModel': 'LGE2323211', 'firmwareVersion': 'V1.3', 'lccid': 'usim121331', 'imsi': '01023224444', 'meterSerialNumber': 'CNTER23123123', 'rssi': '-80', 'entityId': 'M2M2442'}</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>&lt;Response [500]&gt;</t>
+        <v>113703</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>113703</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>{'reason': 'LocalReset', 'chargePointSerialNumber': 'C2313123131231232', 'chargePointVendor': 'LGE', 'chargePointModel': 'LGE2323211', 'firmwareVersion': 'V1.3', 'lccid': 'usim121331', 'imsi': '01023224444', 'meterSerialNumber': 'CNTER23123123', 'rssi': '-80', 'entityId': 'M2M2442'}</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:03.518+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/bootNotification/999332'}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>010400011001</t>
+          <t>01040001100</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20220604135830541_boot</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>ServerError</t>
-        </is>
+          <t>20220605190605029_heartbeat</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>500</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>statusNotification</t>
+          <t>dataTransferHeartbeat</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>10246</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>{'connectorId': '01', 'errorCode': None, 'info': [{'reason': None, 'cpv': 100, 'rv': 11}], 'status': 'Available', 'timestamp': '2022-06-04T13:58:31Z', 'vendorErrorCode': '', 'vendorId': 'LGE'}</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>&lt;Response [500]&gt;</t>
+        <v>113703</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>113703</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>{'vendorId': 'LGE', 'messageId': 'heartbeat', 'data': {'rssi': 80, 'snr': 57, 'rsrp': 70}}</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:03.566+00:00', 'status': 404, 'error': 'Not Found', 'path': '/api/v1/OCPP/dataTransfer/999332'}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>010400011001</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1111222233334444</t>
+          <t>01040001100</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20220604135832733_card</t>
+          <t>20220605190605029_heartbeat</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ServerError</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>authorize</t>
+          <t>statusNotification</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>10246</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>{'idTag': '1111222233334444'}</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>&lt;Response [500]&gt;</t>
+        <v>113703</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>113703</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'errorCode': None, 'info': [{'reason': None, 'cpv': 100, 'rv': 11}], 'status': 'Available', 'timestamp': '2022-06-05T19:06:05Z', 'vendorErrorCode': '', 'vendorId': 'LGE'}</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:03.616+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/statusNotification/999332'}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>010400011001</t>
+          <t>01040001100</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1111222233334444</t>
+          <t>1010202030306060</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20220604135832733_card</t>
+          <t>20220605190605127_card</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ServerError</t>
+          <t>Available</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>statusNotification</t>
+          <t>authorize</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>10246</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>{'connectorId': '01', 'errorCode': None, 'info': [{'reason': None, 'cpv': 100, 'rv': 11}], 'status': 'Preparing', 'timestamp': '2022-06-04T13:58:33Z', 'vendorErrorCode': '', 'vendorId': 'LGE'}</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>&lt;Response [500]&gt;</t>
+        <v>113703</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>113703</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>{'idTag': '1010202030306060'}</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:03.669+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/authorize/999332'}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>010400011001</t>
+          <t>01040001100</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1111222233334444</t>
+          <t>1010202030306060</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20220604135832733_card</t>
+          <t>20220605190605127_card</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ServerError</t>
+          <t>Preparing</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>dataTransferTariff</t>
+          <t>statusNotification</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>10246</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>{'venderId': 'LG', 'messageId': 'Tariff', 'data': {'connectorId': '01', 'idTag': '5555222233334444', 'timestamp': '2022-06-04T13:58:34Z'}}</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>&lt;Response [404]&gt;</t>
+        <v>113703</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>113703</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'errorCode': None, 'info': [{'reason': None, 'cpv': 100, 'rv': 11}], 'status': 'Preparing', 'timestamp': '2022-06-05T19:06:05Z', 'vendorErrorCode': '', 'vendorId': 'LGE'}</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:03.718+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/statusNotification/999332'}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>010400011001</t>
+          <t>01040001100</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1111222233334444</t>
+          <t>1010202030306060</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20220604135832733_card</t>
+          <t>20220605190605127_card</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ServerError</t>
+          <t>Preparing</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>startTransaction</t>
+          <t>dataTransferTariff</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>10246</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>{'idTag': '1111222233334444', 'connectorId': '01', 'meterStart': 10246, 'timestamp': '2022-06-04T13:58:35Z'}</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>&lt;Response [500]&gt;</t>
+        <v>113703</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>113703</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>{'venderId': 'LG', 'messageId': 'Tariff', 'data': {'connectorId': '1', 'idTag': '1010202030306060', 'timestamp': '2022-06-05T19:06:05Z'}}</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:03.764+00:00', 'status': 404, 'error': 'Not Found', 'path': '/api/v1/OCPP/dataTransferTariff/999332'}</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>010400011001</t>
+          <t>01040001100</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1111222233334444</t>
+          <t>1010202030306060</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20220604135832733_card</t>
+          <t>20220605190605127_card</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ServerError</t>
+          <t>Preparing</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>statusNotification</t>
+          <t>startTransaction</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>10246</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>{'connectorId': '01', 'errorCode': None, 'info': [{'reason': None, 'cpv': 100, 'rv': 11}], 'status': 'Charging', 'timestamp': '2022-06-04T13:58:36Z', 'vendorErrorCode': '', 'vendorId': 'LGE'}</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>&lt;Response [500]&gt;</t>
+        <v>113703</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>113703</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>{'idTag': '3333222233334444', 'connectorId': '1', 'meterStart': 113703, 'timestamp': '2022-06-05T19:06:05Z'}</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:03.817+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/startTransaction/999332'}</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>010400011001</t>
+          <t>01040001100</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1111222233334444</t>
+          <t>1010202030306060</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>20220604135832733_card</t>
+          <t>20220605190605127_card</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ServerError</t>
+          <t>Charging</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>meterValues</t>
+          <t>statusNotification</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>11246</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>{'connectorId': '01', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-04T13:58:38Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '23.8'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '219.9'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '1000.8'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '0.4'}]}]}</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>&lt;Response [500]&gt;</t>
+        <v>113703</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>113703</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'errorCode': None, 'info': [{'reason': None, 'cpv': 100, 'rv': 11}], 'status': 'Charging', 'timestamp': '2022-06-05T19:06:05Z', 'vendorErrorCode': '', 'vendorId': 'LGE'}</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:03.865+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/statusNotification/999332'}</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>010400011001</t>
+          <t>01040001100</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1111222233334444</t>
+          <t>1010202030306060</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>20220604135832733_card</t>
+          <t>20220605190605127_card</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ServerError</t>
+          <t>Charging</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -825,38 +906,47 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>13246</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>{'connectorId': '01', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-04T13:58:39Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '47.2'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '220.9'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '2000.7'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '1.5'}]}]}</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>&lt;Response [500]&gt;</t>
+        <v>113703</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>114709</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:05Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '23.1'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '220.4'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '1006.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-0.4'}]}]}</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:03.913+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>010400011001</t>
+          <t>01040001100</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1111222233334444</t>
+          <t>1010202030306060</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>20220604135832733_card</t>
+          <t>20220605190605127_card</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ServerError</t>
+          <t>Charging</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -865,38 +955,47 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>16246</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>{'connectorId': '01', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-04T13:58:40Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '94.7'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '220.0'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '3000.2'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '3.4'}]}]}</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>&lt;Response [500]&gt;</t>
+        <v>113703</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>115742</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:05Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '45.2'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '220.2'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '2039.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-0.6'}]}]}</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:03.961+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>010400011001</t>
+          <t>01040001100</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1111222233334444</t>
+          <t>1010202030306060</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>20220604135832733_card</t>
+          <t>20220605190605127_card</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ServerError</t>
+          <t>Charging</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -905,38 +1004,47 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>20245</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>{'connectorId': '01', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-04T13:58:41Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '190.1'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '219.3'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '3999.8'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '6.7'}]}]}</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>&lt;Response [500]&gt;</t>
+        <v>113703</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>116782</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:05Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '90.0'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '220.7'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '3079.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-1.2'}]}]}</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:04.013+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>010400011001</t>
+          <t>01040001100</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1111222233334444</t>
+          <t>1010202030306060</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>20220604135832733_card</t>
+          <t>20220605190605127_card</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ServerError</t>
+          <t>Charging</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -945,256 +1053,2960 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>25245</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>{'connectorId': '01', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-04T13:58:42Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '381.0'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '220.1'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '5000.1'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '13.6'}]}]}</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>&lt;Response [500]&gt;</t>
+        <v>113703</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>117781</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:05Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '179.3'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '221.5'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '4078.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-3.1'}]}]}</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:04.062+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>010400011001</t>
+          <t>01040001100</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1111222233334444</t>
+          <t>1010202030306060</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>20220604135832733_card</t>
+          <t>20220605190605127_card</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ServerError</t>
+          <t>Charging</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>stopTransaction</t>
+          <t>meterValues</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>25245</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>{'idTag': '1111222233334444', 'meterStop': 15246.089961512216, 'reason': 'Finished', 'timestamp': '2022-06-04T13:58:43Z', 'transactionId': None, 'transactionData': [{'timestamp': '2022-06-04T13:58:43Z', 'sampledValue': [{'measurand': '01', 'phase': '01', 'unit': '01', 'value': '01'}, {'measurand': '01', 'phase': '01', 'unit': '01', 'value': '01'}]}]}</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>&lt;Response [500]&gt;</t>
+        <v>113703</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>118814</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:05Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '358.0'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '222.3'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '5111.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-6.6'}]}]}</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:04.109+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>010400011001</t>
+          <t>01040001100</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1111222233334444</t>
+          <t>1010202030306060</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>20220604135832733_card</t>
+          <t>20220605190605127_card</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ServerError</t>
+          <t>Charging</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>statusNotification</t>
+          <t>meterValues</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>25245</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>{'connectorId': '01', 'errorCode': None, 'info': [{'reason': None, 'cpv': 100, 'rv': 11}], 'status': 'Finishing', 'timestamp': '2022-06-04T13:58:44Z', 'vendorErrorCode': '', 'vendorId': 'LGE'}</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>&lt;Response [500]&gt;</t>
+        <v>113703</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>119849</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:05Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '716.8'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '221.6'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '6146.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-13.9'}]}]}</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:04.166+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>010400011001</t>
+          <t>01040001100</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1111222233334444</t>
+          <t>1010202030306060</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>20220604135832733_card</t>
+          <t>20220605190605127_card</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ServerError</t>
+          <t>Charging</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>statusNotification</t>
+          <t>meterValues</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>25245</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>{'connectorId': '01', 'errorCode': None, 'info': [{'reason': None, 'cpv': 100, 'rv': 11}], 'status': 'Available', 'timestamp': '2022-06-04T13:58:45Z', 'vendorErrorCode': '', 'vendorId': 'LGE'}</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>&lt;Response [500]&gt;</t>
+        <v>113703</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>120893</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:05Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '1432.8'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '221.7'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '7190.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-27.1'}]}]}</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:04.215+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>010400011001</t>
+          <t>01040001100</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1111222233334444</t>
+          <t>1010202030306060</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>20220604135846584_heartbeat</t>
+          <t>20220605190605127_card</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ServerError</t>
+          <t>Charging</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>dataTransferHeartbeat</t>
+          <t>meterValues</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>25245</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>{'vendorId': 'LGE', 'messageId': 'heartbeat', 'data': {'rssi': 80, 'snr': 57, 'rsrp': 70}}</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>&lt;Response [404]&gt;</t>
+        <v>113703</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>121912</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:05Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '2865.2'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '222.0'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '8209.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-54.3'}]}]}</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:04.263+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>010400011001</t>
+          <t>01040001100</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1111222233334444</t>
+          <t>1010202030306060</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>20220604135847647_heartbeat</t>
+          <t>20220605190605127_card</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ServerError</t>
+          <t>Charging</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>dataTransferHeartbeat</t>
+          <t>meterValues</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>25245</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>{'vendorId': 'LGE', 'messageId': 'heartbeat', 'data': {'rssi': 80, 'snr': 57, 'rsrp': 70}}</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>&lt;Response [404]&gt;</t>
+        <v>113703</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>122909</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:05Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '5729.4'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '221.2'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '9206.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-107.8'}]}]}</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:04.311+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>010400011001</t>
+          <t>01040001100</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1111222233334444</t>
+          <t>1010202030306060</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>20220604135848709_heartbeat</t>
+          <t>20220605190605127_card</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ServerError</t>
+          <t>Charging</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>meterValues</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>113703</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>123926</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:05Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '11458.1'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '220.6'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '10223.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-215.7'}]}]}</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:04.360+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1010202030306060</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>20220605190605127_card</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Charging</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>meterValues</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>113703</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>124927</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:05Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '22916.2'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '221.2'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '11224.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-431.6'}]}]}</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:04.406+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1010202030306060</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>20220605190605127_card</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Charging</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>meterValues</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>113703</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>125925</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:05Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '45832.6'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '220.9'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '12222.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-862.9'}]}]}</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:04.454+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1010202030306060</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>20220605190605127_card</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Charging</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>meterValues</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>113703</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>126974</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:05Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '91664.8'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '220.2'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '13271.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-1726.6'}]}]}</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:04.510+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1010202030306060</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>20220605190605127_card</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Charging</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>meterValues</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>113703</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>127995</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:06Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '183330.5'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '220.7'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '14292.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-3452.4'}]}]}</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:04.557+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1010202030306060</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>20220605190605127_card</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Charging</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>meterValues</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>113703</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>129034</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:06Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '366660.8'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '220.9'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '15331.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-6905.3'}]}]}</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:04.606+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1010202030306060</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>20220605190605127_card</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Charging</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>meterValues</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>113703</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>130055</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:06Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '733320.7'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '221.2'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '16352.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-13810.8'}]}]}</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:04.655+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1010202030306060</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>20220605190605127_card</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Charging</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>meterValues</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>113703</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>131062</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:06Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '1466641.9'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '221.3'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '17359.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-27621.6'}]}]}</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:04.702+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1010202030306060</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>20220605190605127_card</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Charging</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>meterValues</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>113703</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>132058</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:06Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '2933283.3'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '220.5'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '18355.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-55243.0'}]}]}</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:04.750+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1010202030306060</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>20220605190605127_card</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Charging</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>meterValues</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>113703</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>133104</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:06Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '5866566.3'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '220.0'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '19401.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-110485.5'}]}]}</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:04.798+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1010202030306060</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>20220605190605127_card</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Charging</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>meterValues</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>113703</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>134099</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:06Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '11733132.8'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '220.1'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '20396.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-220971.0'}]}]}</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:04.849+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1010202030306060</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>20220605190605127_card</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Charging</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>meterValues</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>113703</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>135133</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:06Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '23466266.6'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '219.4'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '21430.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-441942.3'}]}]}</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:04.900+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1010202030306060</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>20220605190605127_card</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Charging</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>stopTransaction</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>113703</v>
+      </c>
+      <c r="H31" t="n">
+        <v>135133</v>
+      </c>
+      <c r="I31" t="n">
+        <v>135133</v>
+      </c>
+      <c r="J31" t="n">
+        <v>21430</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>{'idTag': '3333222233334444', 'meterStop': 135133, 'reason': 'Finished', 'timestamp': '2022-06-05T19:06:06Z', 'transactionId': None, 'transactionData': [{'timestamp': '2022-06-05T19:06:06Z', 'sampledValue': [{'measurand': '01', 'phase': '01', 'unit': '01', 'value': '01'}, {'measurand': '01', 'phase': '01', 'unit': '01', 'value': '01'}]}]}</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:04.956+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/stopTransaction/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1010202030306060</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>20220605190605127_card</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Finishing</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>statusNotification</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>113703</v>
+      </c>
+      <c r="H32" t="n">
+        <v>135133</v>
+      </c>
+      <c r="I32" t="n">
+        <v>135133</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'errorCode': None, 'info': [{'reason': None, 'cpv': 100, 'rv': 11}], 'status': 'Finishing', 'timestamp': '2022-06-05T19:06:06Z', 'vendorErrorCode': '', 'vendorId': 'LGE'}</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:05.006+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/statusNotification/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1010202030306060</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>20220605190605127_card</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>statusNotification</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>113703</v>
+      </c>
+      <c r="H33" t="n">
+        <v>135133</v>
+      </c>
+      <c r="I33" t="n">
+        <v>135133</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'errorCode': None, 'info': [{'reason': None, 'cpv': 100, 'rv': 11}], 'status': 'Available', 'timestamp': '2022-06-05T19:06:06Z', 'vendorErrorCode': '', 'vendorId': 'LGE'}</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:05.055+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/statusNotification/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1010202030306060</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>20220605190606567_heartbeat</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>dataTransferHeartbeat</t>
         </is>
       </c>
-      <c r="G19" t="n">
-        <v>25245</v>
-      </c>
-      <c r="H19" t="inlineStr">
+      <c r="G34" t="n">
+        <v>113703</v>
+      </c>
+      <c r="H34" t="n">
+        <v>135133</v>
+      </c>
+      <c r="I34" t="n">
+        <v>135133</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>{'vendorId': 'LGE', 'messageId': 'heartbeat', 'data': {'rssi': 80, 'snr': 57, 'rsrp': 70}}</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>&lt;Response [404]&gt;</t>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:05.101+00:00', 'status': 404, 'error': 'Not Found', 'path': '/api/v1/OCPP/dataTransfer/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1010202030306060</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>20220605190606612_heartbeat</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>dataTransferHeartbeat</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>113703</v>
+      </c>
+      <c r="H35" t="n">
+        <v>135133</v>
+      </c>
+      <c r="I35" t="n">
+        <v>135133</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>{'vendorId': 'LGE', 'messageId': 'heartbeat', 'data': {'rssi': 80, 'snr': 57, 'rsrp': 70}}</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:05.145+00:00', 'status': 404, 'error': 'Not Found', 'path': '/api/v1/OCPP/dataTransfer/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1010202030306060</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>20220605190606657_heartbeat</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>dataTransferHeartbeat</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>113703</v>
+      </c>
+      <c r="H36" t="n">
+        <v>135133</v>
+      </c>
+      <c r="I36" t="n">
+        <v>135133</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>{'vendorId': 'LGE', 'messageId': 'heartbeat', 'data': {'rssi': 80, 'snr': 57, 'rsrp': 70}}</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:05.201+00:00', 'status': 404, 'error': 'Not Found', 'path': '/api/v1/OCPP/dataTransfer/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>20220605190606657_heartbeat</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>statusNotification</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>113703</v>
+      </c>
+      <c r="H37" t="n">
+        <v>135133</v>
+      </c>
+      <c r="I37" t="n">
+        <v>135133</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'errorCode': None, 'info': [{'reason': None, 'cpv': 100, 'rv': 11}], 'status': 'Available', 'timestamp': '2022-06-05T19:06:06Z', 'vendorErrorCode': '', 'vendorId': 'LGE'}</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:05.250+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/statusNotification/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>5555222233334444</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>20220605190606762_card</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>authorize</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>135133</v>
+      </c>
+      <c r="H38" t="n">
+        <v>135133</v>
+      </c>
+      <c r="I38" t="n">
+        <v>135133</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>{'idTag': '5555222233334444'}</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:05.303+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/authorize/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>5555222233334444</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>20220605190606762_card</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Preparing</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>statusNotification</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>135133</v>
+      </c>
+      <c r="H39" t="n">
+        <v>135133</v>
+      </c>
+      <c r="I39" t="n">
+        <v>135133</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'errorCode': None, 'info': [{'reason': None, 'cpv': 100, 'rv': 11}], 'status': 'Preparing', 'timestamp': '2022-06-05T19:06:06Z', 'vendorErrorCode': '', 'vendorId': 'LGE'}</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:05.352+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/statusNotification/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>5555222233334444</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>20220605190606762_card</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Preparing</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>dataTransferTariff</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>135133</v>
+      </c>
+      <c r="H40" t="n">
+        <v>135133</v>
+      </c>
+      <c r="I40" t="n">
+        <v>135133</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>{'venderId': 'LG', 'messageId': 'Tariff', 'data': {'connectorId': '1', 'idTag': '1010202030306060', 'timestamp': '2022-06-05T19:06:06Z'}}</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:05.396+00:00', 'status': 404, 'error': 'Not Found', 'path': '/api/v1/OCPP/dataTransferTariff/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>5555222233334444</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>20220605190606762_card</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Preparing</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>startTransaction</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>135133</v>
+      </c>
+      <c r="H41" t="n">
+        <v>135133</v>
+      </c>
+      <c r="I41" t="n">
+        <v>135133</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>{'idTag': '1111222233334444', 'connectorId': '1', 'meterStart': 135133, 'timestamp': '2022-06-05T19:06:06Z'}</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:05.447+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/startTransaction/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>5555222233334444</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>20220605190606762_card</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Charging</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>statusNotification</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>135133</v>
+      </c>
+      <c r="H42" t="n">
+        <v>135133</v>
+      </c>
+      <c r="I42" t="n">
+        <v>135133</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'errorCode': None, 'info': [{'reason': None, 'cpv': 100, 'rv': 11}], 'status': 'Charging', 'timestamp': '2022-06-05T19:06:06Z', 'vendorErrorCode': '', 'vendorId': 'LGE'}</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:05.501+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/statusNotification/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>5555222233334444</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>20220605190606762_card</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Charging</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>meterValues</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>135133</v>
+      </c>
+      <c r="H43" t="n">
+        <v>135133</v>
+      </c>
+      <c r="I43" t="n">
+        <v>136153</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:07Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '46932533.7'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '218.8'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '1020.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-883884.8'}]}]}</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:05.548+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>5555222233334444</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>20220605190606762_card</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Charging</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>meterValues</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>135133</v>
+      </c>
+      <c r="H44" t="n">
+        <v>135133</v>
+      </c>
+      <c r="I44" t="n">
+        <v>137166</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:07Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '93865066.7'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '219.2'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '2033.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-1767768.8'}]}]}</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:05.596+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>5555222233334444</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>20220605190606762_card</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Charging</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>meterValues</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>135133</v>
+      </c>
+      <c r="H45" t="n">
+        <v>135133</v>
+      </c>
+      <c r="I45" t="n">
+        <v>138200</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:07Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '187730132.5'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '219.4'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '3067.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-3535537.3'}]}]}</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:05.643+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>5555222233334444</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>20220605190606762_card</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Charging</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>meterValues</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>135133</v>
+      </c>
+      <c r="H46" t="n">
+        <v>135133</v>
+      </c>
+      <c r="I46" t="n">
+        <v>139199</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:07Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '375460265.3'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '219.0'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '4066.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-7071074.9'}]}]}</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:05.690+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>5555222233334444</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>20220605190606762_card</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Charging</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>meterValues</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>135133</v>
+      </c>
+      <c r="H47" t="n">
+        <v>135133</v>
+      </c>
+      <c r="I47" t="n">
+        <v>140206</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:07Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '750920529.8'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '219.6'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '5073.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-14142150.6'}]}]}</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:05.739+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>5555222233334444</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>20220605190606762_card</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Charging</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>meterValues</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>135133</v>
+      </c>
+      <c r="H48" t="n">
+        <v>135133</v>
+      </c>
+      <c r="I48" t="n">
+        <v>141214</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:07Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '1501841060.4'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '219.5'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '6081.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-28284301.2'}]}]}</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:05.786+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>5555222233334444</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>20220605190606762_card</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Charging</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>meterValues</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>135133</v>
+      </c>
+      <c r="H49" t="n">
+        <v>135133</v>
+      </c>
+      <c r="I49" t="n">
+        <v>142248</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:07Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '3003682120.9'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '219.0'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '7115.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-56568602.0'}]}]}</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:05.832+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>5555222233334444</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>20220605190606762_card</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Charging</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>meterValues</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>135133</v>
+      </c>
+      <c r="H50" t="n">
+        <v>135133</v>
+      </c>
+      <c r="I50" t="n">
+        <v>143264</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:07Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '6007364241.9'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '219.2'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '8131.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-113137203.7'}]}]}</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:05.881+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>5555222233334444</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>20220605190606762_card</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Charging</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>meterValues</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>135133</v>
+      </c>
+      <c r="H51" t="n">
+        <v>135133</v>
+      </c>
+      <c r="I51" t="n">
+        <v>144297</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:07Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '12014728483.4'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '219.1'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '9164.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-226274408.2'}]}]}</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:05.928+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>5555222233334444</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>20220605190606762_card</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Charging</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>meterValues</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>135133</v>
+      </c>
+      <c r="H52" t="n">
+        <v>135133</v>
+      </c>
+      <c r="I52" t="n">
+        <v>145337</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:07Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '24029456966.3'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '218.3'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '10204.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-452548816.4'}]}]}</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:05.975+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>5555222233334444</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>20220605190606762_card</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Charging</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>meterValues</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>135133</v>
+      </c>
+      <c r="H53" t="n">
+        <v>135133</v>
+      </c>
+      <c r="I53" t="n">
+        <v>146361</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:07Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '48058913932.2'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '217.6'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '11228.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-905097632.7'}]}]}</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:06.021+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>5555222233334444</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>20220605190606762_card</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Charging</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>meterValues</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>135133</v>
+      </c>
+      <c r="H54" t="n">
+        <v>135133</v>
+      </c>
+      <c r="I54" t="n">
+        <v>147398</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:07Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '96117827864.7'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '218.1'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '12265.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-1810195266.0'}]}]}</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:06.067+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>5555222233334444</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>20220605190606762_card</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Charging</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>meterValues</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>135133</v>
+      </c>
+      <c r="H55" t="n">
+        <v>135133</v>
+      </c>
+      <c r="I55" t="n">
+        <v>148406</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:07Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '192235655729.0'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '219.0'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '13273.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-3620390532.9'}]}]}</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:06.116+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>5555222233334444</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>20220605190606762_card</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Charging</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>meterValues</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>135133</v>
+      </c>
+      <c r="H56" t="n">
+        <v>135133</v>
+      </c>
+      <c r="I56" t="n">
+        <v>149450</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:07Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '384471311457.1'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '219.1'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '14317.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-7240781064.9'}]}]}</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:06.166+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>5555222233334444</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>20220605190606762_card</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Charging</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>meterValues</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>135133</v>
+      </c>
+      <c r="H57" t="n">
+        <v>135133</v>
+      </c>
+      <c r="I57" t="n">
+        <v>150481</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:07Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '768942622914.6'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '219.7'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '15348.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-14481562129.7'}]}]}</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:06.226+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>5555222233334444</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>20220605190606762_card</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Charging</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>meterValues</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>135133</v>
+      </c>
+      <c r="H58" t="n">
+        <v>135133</v>
+      </c>
+      <c r="I58" t="n">
+        <v>151499</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:07Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '1537885245830.1'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '220.4'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '16366.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-28963124259.4'}]}]}</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:06.277+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>5555222233334444</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>20220605190606762_card</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Charging</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>meterValues</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>135133</v>
+      </c>
+      <c r="H59" t="n">
+        <v>135133</v>
+      </c>
+      <c r="I59" t="n">
+        <v>152510</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:07Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '3075770491660.7'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '219.8'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '17377.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-57926248518.7'}]}]}</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:06.324+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>5555222233334444</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>20220605190606762_card</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Charging</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>meterValues</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>135133</v>
+      </c>
+      <c r="H60" t="n">
+        <v>135133</v>
+      </c>
+      <c r="I60" t="n">
+        <v>153550</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:07Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '6151540983321.7'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '219.0'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '18417.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-115852497037.2'}]}]}</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:06.380+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>5555222233334444</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>20220605190606762_card</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Charging</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>meterValues</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>135133</v>
+      </c>
+      <c r="H61" t="n">
+        <v>135133</v>
+      </c>
+      <c r="I61" t="n">
+        <v>154569</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:07Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '12303081966644.3'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '219.7'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '19436.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-231704994074.6'}]}]}</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:06.428+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>5555222233334444</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>20220605190606762_card</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Charging</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>meterValues</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>135133</v>
+      </c>
+      <c r="H62" t="n">
+        <v>135133</v>
+      </c>
+      <c r="I62" t="n">
+        <v>155566</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:07Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '24606163933288.8'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '220.1'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '20433.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-463409988148.3'}]}]}</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:06.476+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>5555222233334444</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>20220605190606762_card</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Charging</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>meterValues</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>135133</v>
+      </c>
+      <c r="H63" t="n">
+        <v>135133</v>
+      </c>
+      <c r="I63" t="n">
+        <v>156561</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:07Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '49212327866578.3'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '220.2'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '21428.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-926819976297.0'}]}]}</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:06.523+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>5555222233334444</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>20220605190606762_card</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Charging</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>meterValues</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>135133</v>
+      </c>
+      <c r="H64" t="n">
+        <v>135133</v>
+      </c>
+      <c r="I64" t="n">
+        <v>157598</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:08Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '98424655733155.8'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '220.1'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '22465.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-1853639952594.5'}]}]}</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:06.572+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>5555222233334444</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>20220605190606762_card</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Charging</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>meterValues</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>135133</v>
+      </c>
+      <c r="H65" t="n">
+        <v>135133</v>
+      </c>
+      <c r="I65" t="n">
+        <v>158642</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:08Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '196849311466311.7'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '220.7'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '23509.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-3707279905188.9'}]}]}</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:06.620+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>5555222233334444</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>20220605190606762_card</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Charging</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>meterValues</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>135133</v>
+      </c>
+      <c r="H66" t="n">
+        <v>135133</v>
+      </c>
+      <c r="I66" t="n">
+        <v>159673</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:08Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '393698622932623.4'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '219.9'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '24540.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-7414559810377.6'}]}]}</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:06.669+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>5555222233334444</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>20220605190606762_card</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Charging</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>meterValues</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>135133</v>
+      </c>
+      <c r="H67" t="n">
+        <v>135133</v>
+      </c>
+      <c r="I67" t="n">
+        <v>160672</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'transactionId': None, 'meterValue': [{'timestamp': '2022-06-05T19:06:08Z', 'sampledValue': [{'measurand': 'Current.Import', 'phase': 'L1', 'unit': 'A', 'value': '787397245865247.5'}, {'measurand': 'Voltage', 'phase': 'L1', 'unit': 'V', 'value': '219.9'}, {'measurand': 'Energy.Active.Import.Register', 'unit': 'Wh', 'value': '25539.0'}, {'measurand': 'SoC', 'unit': '%', 'value': '10'}, {'measurand': 'Power.Active.Import', 'unit': 'W', 'value': '-14829119620754.9'}]}]}</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:06.718+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/meterValues/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>5555222233334444</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>20220605190606762_card</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Charging</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>stopTransaction</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>135133</v>
+      </c>
+      <c r="H68" t="n">
+        <v>160672</v>
+      </c>
+      <c r="I68" t="n">
+        <v>160672</v>
+      </c>
+      <c r="J68" t="n">
+        <v>25539</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>{'idTag': '5555222233334444', 'meterStop': 160672, 'reason': 'Finished', 'timestamp': '2022-06-05T19:06:08Z', 'transactionId': None, 'transactionData': [{'timestamp': '2022-06-05T19:06:08Z', 'sampledValue': [{'measurand': '01', 'phase': '01', 'unit': '01', 'value': '01'}, {'measurand': '01', 'phase': '01', 'unit': '01', 'value': '01'}]}]}</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:06.772+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/stopTransaction/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>5555222233334444</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>20220605190606762_card</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Finishing</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>statusNotification</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>135133</v>
+      </c>
+      <c r="H69" t="n">
+        <v>160672</v>
+      </c>
+      <c r="I69" t="n">
+        <v>160672</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'errorCode': None, 'info': [{'reason': None, 'cpv': 100, 'rv': 11}], 'status': 'Finishing', 'timestamp': '2022-06-05T19:06:08Z', 'vendorErrorCode': '', 'vendorId': 'LGE'}</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:06.821+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/statusNotification/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>5555222233334444</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>20220605190606762_card</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>statusNotification</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>135133</v>
+      </c>
+      <c r="H70" t="n">
+        <v>160672</v>
+      </c>
+      <c r="I70" t="n">
+        <v>160672</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>{'connectorId': '1', 'errorCode': None, 'info': [{'reason': None, 'cpv': 100, 'rv': 11}], 'status': 'Available', 'timestamp': '2022-06-05T19:06:08Z', 'vendorErrorCode': '', 'vendorId': 'LGE'}</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:06.870+00:00', 'status': 500, 'error': 'Internal Server Error', 'path': '/api/v1/OCPP/statusNotification/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>5555222233334444</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>20220605190608381_heartbeat</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>dataTransferHeartbeat</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>135133</v>
+      </c>
+      <c r="H71" t="n">
+        <v>160672</v>
+      </c>
+      <c r="I71" t="n">
+        <v>160672</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>{'vendorId': 'LGE', 'messageId': 'heartbeat', 'data': {'rssi': 80, 'snr': 57, 'rsrp': 70}}</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:06.917+00:00', 'status': 404, 'error': 'Not Found', 'path': '/api/v1/OCPP/dataTransfer/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>5555222233334444</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>20220605190608428_heartbeat</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>dataTransferHeartbeat</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>135133</v>
+      </c>
+      <c r="H72" t="n">
+        <v>160672</v>
+      </c>
+      <c r="I72" t="n">
+        <v>160672</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>{'vendorId': 'LGE', 'messageId': 'heartbeat', 'data': {'rssi': 80, 'snr': 57, 'rsrp': 70}}</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:06.963+00:00', 'status': 404, 'error': 'Not Found', 'path': '/api/v1/OCPP/dataTransfer/999332'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>01040001100</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>5555222233334444</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>20220605190608475_heartbeat</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>dataTransferHeartbeat</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>135133</v>
+      </c>
+      <c r="H73" t="n">
+        <v>160672</v>
+      </c>
+      <c r="I73" t="n">
+        <v>160672</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>{'vendorId': 'LGE', 'messageId': 'heartbeat', 'data': {'rssi': 80, 'snr': 57, 'rsrp': 70}}</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>{'timestamp': '2022-06-05T10:06:07.011+00:00', 'status': 404, 'error': 'Not Found', 'path': '/api/v1/OCPP/dataTransfer/999332'}</t>
         </is>
       </c>
     </row>
